--- a/nickname.xlsx
+++ b/nickname.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\MapleNicknameChecker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F853E4-1819-4626-921D-CF4DACEE2B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCFF86B-6C7B-4407-BFCE-B70AADF4BE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -392,7 +392,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
